--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69D97A1-A795-4A0A-89C3-4E5A839A151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D41F2B0-9987-4653-968E-DABC46B66CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C65D889-B5AF-44C6-8D8F-D13B20DE4A02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23B7E07D-14F5-4AF9-BD62-064E21EEFFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,10 +104,10 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>6,41%</t>
@@ -116,922 +116,919 @@
     <t>4,49%</t>
   </si>
   <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B0C3BB-95D4-4265-82A7-675664C8F4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8D127-965A-4EC4-BD6D-F0620B4482FC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1830,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -1842,13 +1839,13 @@
         <v>35561</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -1857,13 +1854,13 @@
         <v>50972</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1875,13 @@
         <v>23576</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -1893,13 +1890,13 @@
         <v>41619</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -1908,13 +1905,13 @@
         <v>65195</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1926,13 @@
         <v>87556</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -1944,13 +1941,13 @@
         <v>113514</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
@@ -1959,13 +1956,13 @@
         <v>201071</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1977,13 @@
         <v>392754</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>449</v>
@@ -1995,13 +1992,13 @@
         <v>363152</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>731</v>
@@ -2010,13 +2007,13 @@
         <v>755907</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2069,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2081,13 @@
         <v>27846</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -2099,13 +2096,13 @@
         <v>45036</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -2114,13 +2111,13 @@
         <v>72882</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>24686</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -2150,13 +2147,13 @@
         <v>29586</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -2165,10 +2162,10 @@
         <v>54272</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2413,7 +2410,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>100</v>
@@ -2422,7 +2419,7 @@
         <v>79203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>140</v>
@@ -2476,10 +2473,10 @@
         <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2491,13 @@
         <v>229758</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -2509,13 +2506,13 @@
         <v>234032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -2524,13 +2521,13 @@
         <v>463791</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2583,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2595,13 @@
         <v>4362</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2613,13 +2610,13 @@
         <v>11065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -2628,7 +2625,7 @@
         <v>15427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>167</v>
@@ -2670,7 +2667,7 @@
         <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -2682,10 +2679,10 @@
         <v>24</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2697,13 @@
         <v>133116</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>371</v>
@@ -2715,13 +2712,13 @@
         <v>165563</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>569</v>
@@ -2730,13 +2727,13 @@
         <v>298679</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2748,13 @@
         <v>47795</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -2766,13 +2763,13 @@
         <v>38875</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -2781,13 +2778,13 @@
         <v>86670</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2840,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2852,13 @@
         <v>17290</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2870,13 +2867,13 @@
         <v>27970</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -2885,13 +2882,13 @@
         <v>45261</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2903,13 @@
         <v>23153</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -2921,13 +2918,13 @@
         <v>38537</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -2939,10 +2936,10 @@
         <v>109</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2954,13 @@
         <v>28536</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>85</v>
@@ -2972,13 +2969,13 @@
         <v>39700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -2987,13 +2984,13 @@
         <v>68236</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3005,13 @@
         <v>208245</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
@@ -3023,13 +3020,13 @@
         <v>169414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>520</v>
@@ -3038,13 +3035,13 @@
         <v>377659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3097,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3109,13 @@
         <v>38363</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>119</v>
@@ -3127,13 +3124,13 @@
         <v>86411</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>153</v>
@@ -3142,13 +3139,13 @@
         <v>124774</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3160,13 @@
         <v>50111</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -3178,13 +3175,13 @@
         <v>103337</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
@@ -3193,10 +3190,10 @@
         <v>153448</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>246</v>
@@ -3301,7 +3298,7 @@
         <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3354,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,10 +3366,10 @@
         <v>118781</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>267</v>
@@ -3420,13 +3417,13 @@
         <v>49467</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>127</v>
@@ -3435,13 +3432,13 @@
         <v>98857</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="M40" s="7">
         <v>184</v>
@@ -3450,13 +3447,13 @@
         <v>148324</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3468,13 @@
         <v>100537</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>179</v>
@@ -3486,13 +3483,13 @@
         <v>134916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>286</v>
@@ -3501,13 +3498,13 @@
         <v>235453</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3519,13 @@
         <v>590642</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>504</v>
@@ -3537,13 +3534,13 @@
         <v>458687</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>965</v>
@@ -3552,13 +3549,13 @@
         <v>1049329</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3623,13 @@
         <v>250409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>657</v>
@@ -3641,13 +3638,13 @@
         <v>443123</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="M44" s="7">
         <v>929</v>
@@ -3656,13 +3653,13 @@
         <v>693532</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3674,13 @@
         <v>223950</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>591</v>
@@ -3692,7 +3689,7 @@
         <v>392680</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>309</v>
@@ -3731,10 +3728,10 @@
         <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>1311</v>
@@ -3743,13 +3740,13 @@
         <v>782173</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1954</v>
@@ -3758,13 +3755,13 @@
         <v>1345307</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3776,13 @@
         <v>2344649</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>2801</v>
@@ -3794,13 +3791,13 @@
         <v>2185675</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>5012</v>
@@ -3809,13 +3806,13 @@
         <v>4530324</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3868,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D41F2B0-9987-4653-968E-DABC46B66CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B48130-363A-4B17-A13E-553321B5D978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23B7E07D-14F5-4AF9-BD62-064E21EEFFDF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BFAA3F9-C961-4A5E-9988-62A33950654B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8D127-965A-4EC4-BD6D-F0620B4482FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB0BB5F-B52F-414A-B347-06C182629F96}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B48130-363A-4B17-A13E-553321B5D978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E321C9-42DC-43B9-88E4-42DAB91DD474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BFAA3F9-C961-4A5E-9988-62A33950654B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53C7D4F2-D2F4-417F-A07B-76F48D84794C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,10 +104,10 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>6,41%</t>
@@ -116,919 +116,922 @@
     <t>4,49%</t>
   </si>
   <si>
-    <t>8,81%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB0BB5F-B52F-414A-B347-06C182629F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0939B090-DA69-4E74-B538-C432D1D3D8FD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,7 +1833,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -1839,13 +1842,13 @@
         <v>35561</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -1854,13 +1857,13 @@
         <v>50972</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1878,13 @@
         <v>23576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -1890,13 +1893,13 @@
         <v>41619</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -1905,13 +1908,13 @@
         <v>65195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1929,13 @@
         <v>87556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -1941,13 +1944,13 @@
         <v>113514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
@@ -1956,13 +1959,13 @@
         <v>201071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1980,13 @@
         <v>392754</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>449</v>
@@ -1992,13 +1995,13 @@
         <v>363152</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>731</v>
@@ -2007,13 +2010,13 @@
         <v>755907</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2084,13 @@
         <v>27846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -2096,13 +2099,13 @@
         <v>45036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -2111,13 +2114,13 @@
         <v>72882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2135,13 @@
         <v>24686</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -2147,13 +2150,13 @@
         <v>29586</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -2162,10 +2165,10 @@
         <v>54272</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2410,7 +2413,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>100</v>
@@ -2419,7 +2422,7 @@
         <v>79203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>140</v>
@@ -2473,10 +2476,10 @@
         <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2494,13 @@
         <v>229758</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -2506,13 +2509,13 @@
         <v>234032</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -2521,13 +2524,13 @@
         <v>463791</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2598,13 @@
         <v>4362</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2610,13 +2613,13 @@
         <v>11065</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -2625,7 +2628,7 @@
         <v>15427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>167</v>
@@ -2667,7 +2670,7 @@
         <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -2679,10 +2682,10 @@
         <v>24</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2700,13 @@
         <v>133116</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>371</v>
@@ -2712,13 +2715,13 @@
         <v>165563</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>569</v>
@@ -2727,13 +2730,13 @@
         <v>298679</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2751,13 @@
         <v>47795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -2763,13 +2766,13 @@
         <v>38875</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -2778,13 +2781,13 @@
         <v>86670</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2843,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,13 +2855,13 @@
         <v>17290</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2867,13 +2870,13 @@
         <v>27970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -2882,13 +2885,13 @@
         <v>45261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2906,13 @@
         <v>23153</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -2918,13 +2921,13 @@
         <v>38537</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -2936,10 +2939,10 @@
         <v>109</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2957,13 @@
         <v>28536</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>85</v>
@@ -2969,13 +2972,13 @@
         <v>39700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -2984,13 +2987,13 @@
         <v>68236</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3008,13 @@
         <v>208245</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
@@ -3020,13 +3023,13 @@
         <v>169414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>520</v>
@@ -3035,13 +3038,13 @@
         <v>377659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3112,13 @@
         <v>38363</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>119</v>
@@ -3124,13 +3127,13 @@
         <v>86411</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>153</v>
@@ -3139,13 +3142,13 @@
         <v>124774</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3163,13 @@
         <v>50111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -3175,13 +3178,13 @@
         <v>103337</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
@@ -3190,10 +3193,10 @@
         <v>153448</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>246</v>
@@ -3298,7 +3301,7 @@
         <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3366,10 +3369,10 @@
         <v>118781</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>267</v>
@@ -3417,13 +3420,13 @@
         <v>49467</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="H40" s="7">
         <v>127</v>
@@ -3432,13 +3435,13 @@
         <v>98857</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M40" s="7">
         <v>184</v>
@@ -3447,13 +3450,13 @@
         <v>148324</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3471,13 @@
         <v>100537</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>179</v>
@@ -3483,13 +3486,13 @@
         <v>134916</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>286</v>
@@ -3498,13 +3501,13 @@
         <v>235453</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3522,13 @@
         <v>590642</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>504</v>
@@ -3534,13 +3537,13 @@
         <v>458687</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>965</v>
@@ -3549,13 +3552,13 @@
         <v>1049329</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3626,13 @@
         <v>250409</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>657</v>
@@ -3638,13 +3641,13 @@
         <v>443123</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="M44" s="7">
         <v>929</v>
@@ -3653,13 +3656,13 @@
         <v>693532</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3677,13 @@
         <v>223950</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>591</v>
@@ -3689,7 +3692,7 @@
         <v>392680</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>309</v>
@@ -3728,10 +3731,10 @@
         <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>1311</v>
@@ -3740,13 +3743,13 @@
         <v>782173</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1954</v>
@@ -3755,13 +3758,13 @@
         <v>1345307</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3779,13 @@
         <v>2344649</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>2801</v>
@@ -3791,13 +3794,13 @@
         <v>2185675</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>5012</v>
@@ -3806,13 +3809,13 @@
         <v>4530324</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E321C9-42DC-43B9-88E4-42DAB91DD474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD530574-EF5C-4137-8D61-D1845DD5914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53C7D4F2-D2F4-417F-A07B-76F48D84794C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6D4F0AC-73C9-42F8-A949-297F34011420}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -71,967 +71,955 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0939B090-DA69-4E74-B538-C432D1D3D8FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F34CDE-1F89-4E39-8E57-98BCDB16F2F1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1582,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3712</v>
+        <v>4098</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1597,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>4504</v>
+        <v>4936</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1618,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>9631</v>
+        <v>11197</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1633,7 +1621,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>17400</v>
+        <v>18385</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1648,7 +1636,7 @@
         <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>27031</v>
+        <v>29582</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1669,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>24841</v>
+        <v>28384</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1684,7 +1672,7 @@
         <v>91</v>
       </c>
       <c r="I6" s="7">
-        <v>41953</v>
+        <v>44118</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1699,7 +1687,7 @@
         <v>131</v>
       </c>
       <c r="N6" s="7">
-        <v>66794</v>
+        <v>72501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1720,7 +1708,7 @@
         <v>278</v>
       </c>
       <c r="D7" s="7">
-        <v>225034</v>
+        <v>271024</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1735,7 +1723,7 @@
         <v>403</v>
       </c>
       <c r="I7" s="7">
-        <v>208338</v>
+        <v>223034</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1750,7 +1738,7 @@
         <v>681</v>
       </c>
       <c r="N7" s="7">
-        <v>433371</v>
+        <v>494058</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1771,7 +1759,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1786,7 +1774,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1801,7 +1789,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1824,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>15411</v>
+        <v>15049</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1833,37 +1821,37 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>35561</v>
+        <v>32801</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>50972</v>
+        <v>47849</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,46 +1863,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>23576</v>
+        <v>22664</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>41619</v>
+        <v>38586</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>65195</v>
+        <v>61250</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,46 +1914,46 @@
         <v>69</v>
       </c>
       <c r="D11" s="7">
-        <v>87556</v>
+        <v>85624</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>113514</v>
+        <v>105403</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
       </c>
       <c r="N11" s="7">
-        <v>201071</v>
+        <v>191027</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,46 +1965,46 @@
         <v>282</v>
       </c>
       <c r="D12" s="7">
-        <v>392754</v>
+        <v>395053</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>449</v>
       </c>
       <c r="I12" s="7">
-        <v>363152</v>
+        <v>337533</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>731</v>
       </c>
       <c r="N12" s="7">
-        <v>755907</v>
+        <v>732585</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2016,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2043,7 +2031,7 @@
         <v>716</v>
       </c>
       <c r="I13" s="7">
-        <v>553846</v>
+        <v>514322</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2046,7 @@
         <v>1098</v>
       </c>
       <c r="N13" s="7">
-        <v>1073144</v>
+        <v>1032712</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2072,7 +2060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,46 +2069,46 @@
         <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>27846</v>
+        <v>27017</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>45036</v>
+        <v>41987</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
       </c>
       <c r="N14" s="7">
-        <v>72882</v>
+        <v>69004</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,46 +2120,46 @@
         <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>24686</v>
+        <v>24186</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
       </c>
       <c r="I15" s="7">
-        <v>29586</v>
+        <v>27565</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>54272</v>
+        <v>51751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,46 +2171,46 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>18604</v>
+        <v>17853</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>41652</v>
+        <v>38787</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>60256</v>
+        <v>56640</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,46 +2222,46 @@
         <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>249093</v>
+        <v>245010</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
       </c>
       <c r="I17" s="7">
-        <v>257010</v>
+        <v>240789</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
       </c>
       <c r="N17" s="7">
-        <v>506103</v>
+        <v>485799</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2273,7 @@
         <v>358</v>
       </c>
       <c r="D18" s="7">
-        <v>320230</v>
+        <v>314065</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2300,7 +2288,7 @@
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2315,7 +2303,7 @@
         <v>894</v>
       </c>
       <c r="N18" s="7">
-        <v>693514</v>
+        <v>663193</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2329,7 +2317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2338,46 +2326,46 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>27562</v>
+        <v>26616</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
       </c>
       <c r="I19" s="7">
-        <v>60156</v>
+        <v>55101</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>87718</v>
+        <v>81717</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,46 +2377,46 @@
         <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>31851</v>
+        <v>30658</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>47352</v>
+        <v>44120</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>100</v>
       </c>
       <c r="N20" s="7">
-        <v>79203</v>
+        <v>74778</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,43 +2428,43 @@
         <v>33</v>
       </c>
       <c r="D21" s="7">
-        <v>33069</v>
+        <v>31364</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>86586</v>
+        <v>79913</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
       </c>
       <c r="N21" s="7">
-        <v>119654</v>
+        <v>111277</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>149</v>
@@ -2491,7 +2479,7 @@
         <v>208</v>
       </c>
       <c r="D22" s="7">
-        <v>229758</v>
+        <v>223919</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2506,7 +2494,7 @@
         <v>299</v>
       </c>
       <c r="I22" s="7">
-        <v>234032</v>
+        <v>296177</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2521,7 +2509,7 @@
         <v>507</v>
       </c>
       <c r="N22" s="7">
-        <v>463791</v>
+        <v>520095</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -2542,7 +2530,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2557,7 +2545,7 @@
         <v>598</v>
       </c>
       <c r="I23" s="7">
-        <v>428126</v>
+        <v>475311</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2572,7 +2560,7 @@
         <v>890</v>
       </c>
       <c r="N23" s="7">
-        <v>750366</v>
+        <v>787867</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2595,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>4362</v>
+        <v>3953</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>160</v>
@@ -2610,7 +2598,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>11065</v>
+        <v>10026</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>163</v>
@@ -2619,22 +2607,22 @@
         <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>15427</v>
+        <v>13979</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,40 +2634,40 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>11475</v>
+        <v>10353</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>15994</v>
+        <v>14376</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>27468</v>
+        <v>24730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>175</v>
@@ -2697,7 +2685,7 @@
         <v>198</v>
       </c>
       <c r="D26" s="7">
-        <v>133116</v>
+        <v>121638</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>177</v>
@@ -2712,7 +2700,7 @@
         <v>371</v>
       </c>
       <c r="I26" s="7">
-        <v>165563</v>
+        <v>150423</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>180</v>
@@ -2727,7 +2715,7 @@
         <v>569</v>
       </c>
       <c r="N26" s="7">
-        <v>298679</v>
+        <v>272061</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>183</v>
@@ -2748,7 +2736,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="7">
-        <v>47795</v>
+        <v>42798</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>186</v>
@@ -2763,7 +2751,7 @@
         <v>58</v>
       </c>
       <c r="I27" s="7">
-        <v>38875</v>
+        <v>33448</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -2778,16 +2766,16 @@
         <v>114</v>
       </c>
       <c r="N27" s="7">
-        <v>86670</v>
+        <v>76246</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2787,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2814,7 +2802,7 @@
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2829,7 +2817,7 @@
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2843,7 +2831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,46 +2840,46 @@
         <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>17290</v>
+        <v>16420</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>27970</v>
+        <v>26024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>45261</v>
+        <v>42444</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,46 +2891,46 @@
         <v>34</v>
       </c>
       <c r="D30" s="7">
-        <v>23153</v>
+        <v>22238</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
       </c>
       <c r="I30" s="7">
-        <v>38537</v>
+        <v>36012</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
       </c>
       <c r="N30" s="7">
-        <v>61690</v>
+        <v>58250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,46 +2942,46 @@
         <v>42</v>
       </c>
       <c r="D31" s="7">
-        <v>28536</v>
+        <v>27655</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>85</v>
       </c>
       <c r="I31" s="7">
-        <v>39700</v>
+        <v>37040</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
       </c>
       <c r="N31" s="7">
-        <v>68236</v>
+        <v>64695</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,46 +2993,46 @@
         <v>271</v>
       </c>
       <c r="D32" s="7">
-        <v>208245</v>
+        <v>203323</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
       </c>
       <c r="I32" s="7">
-        <v>169414</v>
+        <v>157980</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>520</v>
       </c>
       <c r="N32" s="7">
-        <v>377659</v>
+        <v>361303</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3044,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3071,7 +3059,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3086,7 +3074,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3100,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,46 +3097,46 @@
         <v>34</v>
       </c>
       <c r="D34" s="7">
-        <v>38363</v>
+        <v>38671</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>119</v>
       </c>
       <c r="I34" s="7">
-        <v>86411</v>
+        <v>79810</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>153</v>
       </c>
       <c r="N34" s="7">
-        <v>124774</v>
+        <v>118480</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,46 +3148,46 @@
         <v>51</v>
       </c>
       <c r="D35" s="7">
-        <v>50111</v>
+        <v>48864</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
       </c>
       <c r="I35" s="7">
-        <v>103337</v>
+        <v>96206</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
       </c>
       <c r="N35" s="7">
-        <v>153448</v>
+        <v>145070</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,46 +3199,46 @@
         <v>130</v>
       </c>
       <c r="D36" s="7">
-        <v>136875</v>
+        <v>137298</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>219</v>
       </c>
       <c r="I36" s="7">
-        <v>158289</v>
+        <v>147183</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>349</v>
       </c>
       <c r="N36" s="7">
-        <v>295163</v>
+        <v>284481</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,46 +3250,46 @@
         <v>383</v>
       </c>
       <c r="D37" s="7">
-        <v>401328</v>
+        <v>398417</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>483</v>
       </c>
       <c r="I37" s="7">
-        <v>456167</v>
+        <v>526066</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>866</v>
       </c>
       <c r="N37" s="7">
-        <v>857495</v>
+        <v>924482</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3301,7 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3328,7 +3316,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3343,7 +3331,7 @@
         <v>1558</v>
       </c>
       <c r="N38" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3357,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3366,46 +3354,46 @@
         <v>137</v>
       </c>
       <c r="D39" s="7">
-        <v>118781</v>
+        <v>101582</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>251</v>
       </c>
       <c r="I39" s="7">
-        <v>173212</v>
+        <v>145831</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>388</v>
       </c>
       <c r="N39" s="7">
-        <v>291994</v>
+        <v>247413</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,46 +3405,46 @@
         <v>57</v>
       </c>
       <c r="D40" s="7">
-        <v>49467</v>
+        <v>42502</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>127</v>
       </c>
       <c r="I40" s="7">
-        <v>98857</v>
+        <v>82028</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>184</v>
       </c>
       <c r="N40" s="7">
-        <v>148324</v>
+        <v>124531</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,46 +3456,46 @@
         <v>107</v>
       </c>
       <c r="D41" s="7">
-        <v>100537</v>
+        <v>85855</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>179</v>
       </c>
       <c r="I41" s="7">
-        <v>134916</v>
+        <v>113148</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>286</v>
       </c>
       <c r="N41" s="7">
-        <v>235453</v>
+        <v>199003</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,46 +3507,46 @@
         <v>461</v>
       </c>
       <c r="D42" s="7">
-        <v>590642</v>
+        <v>698781</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>504</v>
       </c>
       <c r="I42" s="7">
-        <v>458687</v>
+        <v>374385</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>965</v>
       </c>
       <c r="N42" s="7">
-        <v>1049329</v>
+        <v>1073166</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3558,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3585,7 +3573,7 @@
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3600,7 +3588,7 @@
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3623,37 +3611,37 @@
         <v>272</v>
       </c>
       <c r="D44" s="7">
-        <v>250409</v>
+        <v>230145</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H44" s="7">
         <v>657</v>
       </c>
       <c r="I44" s="7">
-        <v>443123</v>
+        <v>395677</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="M44" s="7">
         <v>929</v>
       </c>
       <c r="N44" s="7">
-        <v>693532</v>
+        <v>625822</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>302</v>
@@ -3674,46 +3662,46 @@
         <v>247</v>
       </c>
       <c r="D45" s="7">
-        <v>223950</v>
+        <v>212662</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>591</v>
       </c>
       <c r="I45" s="7">
-        <v>392680</v>
+        <v>357278</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="M45" s="7">
         <v>838</v>
       </c>
       <c r="N45" s="7">
-        <v>616630</v>
+        <v>569940</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,46 +3713,46 @@
         <v>643</v>
       </c>
       <c r="D46" s="7">
-        <v>563134</v>
+        <v>535671</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>1311</v>
       </c>
       <c r="I46" s="7">
-        <v>782173</v>
+        <v>716015</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>1954</v>
       </c>
       <c r="N46" s="7">
-        <v>1345307</v>
+        <v>1251686</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,46 +3764,46 @@
         <v>2211</v>
       </c>
       <c r="D47" s="7">
-        <v>2344649</v>
+        <v>2478324</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>2801</v>
       </c>
       <c r="I47" s="7">
-        <v>2185675</v>
+        <v>2189412</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>5012</v>
       </c>
       <c r="N47" s="7">
-        <v>4530324</v>
+        <v>4667736</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3815,7 @@
         <v>3373</v>
       </c>
       <c r="D48" s="7">
-        <v>3382141</v>
+        <v>3456802</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3842,7 +3830,7 @@
         <v>5360</v>
       </c>
       <c r="I48" s="7">
-        <v>3803652</v>
+        <v>3658381</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3857,7 +3845,7 @@
         <v>8733</v>
       </c>
       <c r="N48" s="7">
-        <v>7185793</v>
+        <v>7115184</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3871,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente cansado cuando despierta por la mañana en 2023</t>
+          <t>Población según la frecuencia con la que se siente cansado cuando despierta por la mañana en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
